--- a/testing/testSuite/src/main/resources/TestGLAccountStandardisation/testDayOnDayProcessing/ExpectedResults.xlsx
+++ b/testing/testSuite/src/main/resources/TestGLAccountStandardisation/testDayOnDayProcessing/ExpectedResults.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0639DDBE-721D-44AE-8623-EE7AA6D8E06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="0" windowWidth="20055" windowHeight="10035" tabRatio="653" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="er_broken_feed" sheetId="7" r:id="rId1"/>
@@ -374,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -425,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +442,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -749,7 +757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -783,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -843,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -967,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2162,12 +2170,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A4:XFD15"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,7 +2373,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
@@ -2488,7 +2496,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
@@ -2611,7 +2619,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
@@ -2734,7 +2742,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
@@ -2807,10 +2815,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>

--- a/testing/testSuite/src/main/resources/TestGLAccountStandardisation/testDayOnDayProcessing/ExpectedResults.xlsx
+++ b/testing/testSuite/src/main/resources/TestGLAccountStandardisation/testDayOnDayProcessing/ExpectedResults.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0639DDBE-721D-44AE-8623-EE7AA6D8E06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="0" windowWidth="20055" windowHeight="10035" tabRatio="653" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="er_broken_feed" sheetId="7" r:id="rId1"/>
@@ -375,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,12 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -432,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,7 +435,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -757,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -791,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -851,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -975,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2170,12 +2162,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2365,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
@@ -2496,7 +2488,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
@@ -2619,7 +2611,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
@@ -2742,7 +2734,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
@@ -2815,10 +2807,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
